--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2126414.327820971</v>
+        <v>2119403.598704976</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791246</v>
+        <v>419463.093379124</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8604246.608114408</v>
+        <v>8604246.60811441</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -665,16 +665,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>197.9874416559729</v>
+        <v>24.2456158758974</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>140.7838678118571</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>78.69236129864076</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>42.2267493501207</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>22.96189723698676</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -871,10 +871,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>214.362956492598</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>208.80219215828</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>42.53198234268659</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>220.319790174673</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1060,10 +1060,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>165.6158245190444</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>76.74086563202125</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>112.4146879222726</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>308.956426704527</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>31.4628666386045</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>175.6983641828944</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372792</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362804</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>120.0961968842571</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>42.91313468929042</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717785</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465761</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681701</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S13" t="n">
-        <v>72.93729667857197</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>92.4844304871753</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873668</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>25.97124652368873</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>339.9566389597946</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372792</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993877</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D16" t="n">
-        <v>82.9984695717785</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465761</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442488</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681701</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338906</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456099</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>71.35120042921186</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>72.60462481602328</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927754</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2144,7 @@
         <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838895</v>
+        <v>24.17382596574976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828908</v>
+        <v>52.06849973564988</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043174</v>
+        <v>70.5760187316782</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459981</v>
+        <v>55.72314698196061</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643953</v>
+        <v>41.29686219380034</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931864</v>
+        <v>41.22330424667945</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908591</v>
+        <v>42.97275566644672</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147805</v>
+        <v>53.79159358883885</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805009</v>
+        <v>41.14384575541089</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922202</v>
+        <v>18.98356133658282</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367794</v>
+        <v>9.882059701038742</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920526</v>
+        <v>88.00800320656606</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
@@ -4195,13 +4195,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1974.795654933737</v>
+        <v>1650.177071018759</v>
       </c>
       <c r="C2" t="n">
-        <v>1581.620153436667</v>
+        <v>1257.00156952169</v>
       </c>
       <c r="D2" t="n">
-        <v>1196.179024653335</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E2" t="n">
-        <v>793.5954997698793</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L2" t="n">
-        <v>402.4780154222168</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M2" t="n">
-        <v>940.7368004323098</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="N2" t="n">
-        <v>1386.555876713899</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606228</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.78296973775</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Y2" t="n">
-        <v>1974.795654933737</v>
+        <v>2050.671816730156</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021447</v>
+        <v>565.7831933395935</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622369</v>
+        <v>565.7831933395935</v>
       </c>
       <c r="D3" t="n">
-        <v>425.6719538272462</v>
+        <v>435.6942259610738</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284341</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475499</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569815</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>363.2348054569815</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>901.4935904670745</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875481</v>
+        <v>1985.128818155981</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466462</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535683</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675987</v>
+        <v>887.3033373467701</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.609752343106</v>
+        <v>707.9891204222774</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.5272117404921</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="C4" t="n">
-        <v>116.5272117404921</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="D4" t="n">
-        <v>116.5272117404921</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="E4" t="n">
-        <v>116.5272117404921</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="F4" t="n">
-        <v>116.5272117404921</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="G4" t="n">
-        <v>116.5272117404921</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865304</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865304</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>382.5065569196679</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U4" t="n">
-        <v>382.5065569196679</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="V4" t="n">
-        <v>116.5272117404921</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="W4" t="n">
-        <v>116.5272117404921</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="X4" t="n">
-        <v>116.5272117404921</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="Y4" t="n">
-        <v>116.5272117404921</v>
+        <v>95.07535252315239</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>671.7297746312154</v>
+        <v>1781.416694537042</v>
       </c>
       <c r="C5" t="n">
-        <v>671.7297746312154</v>
+        <v>1781.416694537042</v>
       </c>
       <c r="D5" t="n">
-        <v>671.7297746312154</v>
+        <v>1395.975565753709</v>
       </c>
       <c r="E5" t="n">
-        <v>269.1462497477599</v>
+        <v>993.3920408702538</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634777</v>
+        <v>576.4976024002316</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475499</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>188.1454323035831</v>
+        <v>280.012274464854</v>
       </c>
       <c r="L5" t="n">
-        <v>681.465724022112</v>
+        <v>773.3325661833828</v>
       </c>
       <c r="M5" t="n">
-        <v>1113.938633827817</v>
+        <v>773.3325661833828</v>
       </c>
       <c r="N5" t="n">
-        <v>1641.749917465279</v>
+        <v>1286.935244793071</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465279</v>
+        <v>1726.974845685399</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.78296973775</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.78296973775</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.78296973775</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.78296973775</v>
+        <v>1781.416694537042</v>
       </c>
       <c r="V5" t="n">
-        <v>1832.676160441268</v>
+        <v>1781.416694537042</v>
       </c>
       <c r="W5" t="n">
-        <v>1461.677125409556</v>
+        <v>1781.416694537042</v>
       </c>
       <c r="X5" t="n">
-        <v>1072.224520342612</v>
+        <v>1781.416694537042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1072.224520342612</v>
+        <v>1781.416694537042</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.3854211681779</v>
+        <v>733.1765977824077</v>
       </c>
       <c r="C6" t="n">
-        <v>512.7311907282701</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>512.7311907282701</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>376.2846998391578</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>251.8528937222896</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>131.793075794154</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475499</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>407.9705203262572</v>
       </c>
       <c r="N6" t="n">
-        <v>2036.433443595208</v>
+        <v>921.5731989359451</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.78296973775</v>
+        <v>1435.175877545633</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.78296973775</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535683</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734591</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413233</v>
+        <v>1706.251474293496</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.3482927843</v>
+        <v>1483.711472664563</v>
       </c>
       <c r="W6" t="n">
-        <v>1183.80305018362</v>
+        <v>1253.59422679785</v>
       </c>
       <c r="X6" t="n">
-        <v>994.4959725336321</v>
+        <v>1064.287149147862</v>
       </c>
       <c r="Y6" t="n">
-        <v>815.1817556091393</v>
+        <v>884.9729322233691</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.3338904262511</v>
+        <v>680.2262247156591</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1287724922402</v>
+        <v>510.0211067816483</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475499</v>
+        <v>354.387993684163</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475499</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>777.653970300909</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.5419091175523</v>
+        <v>865.4342434069604</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1388.826628074147</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="C8" t="n">
-        <v>995.6511265770774</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="D8" t="n">
-        <v>610.2099977937452</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,22 +4805,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>846.5749518678007</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>1392.575851912381</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2071.902861797301</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2071.902861797301</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1700.903826765588</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X8" t="n">
-        <v>1700.903826765588</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="Y8" t="n">
-        <v>1388.826628074147</v>
+        <v>182.839545823232</v>
       </c>
     </row>
     <row r="9">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>793.0783299033453</v>
       </c>
       <c r="T10" t="n">
-        <v>510.2248569938795</v>
+        <v>793.0783299033453</v>
       </c>
       <c r="U10" t="n">
-        <v>224.7860652357804</v>
+        <v>793.0783299033453</v>
       </c>
       <c r="V10" t="n">
-        <v>224.7860652357804</v>
+        <v>793.0783299033453</v>
       </c>
       <c r="W10" t="n">
-        <v>224.7860652357804</v>
+        <v>793.0783299033453</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>558.9980076863284</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.22271816768</v>
+        <v>1714.395101119023</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>1079.371021131009</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>748.5837713937469</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185757</v>
+        <v>403.4856080699186</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527726</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654571</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411573</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2984.647095423699</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2984.647095423699</v>
       </c>
       <c r="W11" t="n">
-        <v>2361.921188732883</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="X11" t="n">
-        <v>2361.921188732883</v>
+        <v>2367.788005617431</v>
       </c>
       <c r="Y11" t="n">
-        <v>2361.921188732883</v>
+        <v>2043.093571684226</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>326.1762814043713</v>
+        <v>569.5655503012281</v>
       </c>
       <c r="C13" t="n">
-        <v>326.1762814043713</v>
+        <v>471.1567075134112</v>
       </c>
       <c r="D13" t="n">
-        <v>242.3394434530798</v>
+        <v>387.3198695621199</v>
       </c>
       <c r="E13" t="n">
-        <v>158.5769064584761</v>
+        <v>303.5573325675163</v>
       </c>
       <c r="F13" t="n">
-        <v>158.5769064584761</v>
+        <v>303.5573325675163</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118227</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138165</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1423.058604765445</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="T13" t="n">
-        <v>1259.135828079873</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="U13" t="n">
-        <v>1045.493311467967</v>
+        <v>1230.985410981374</v>
       </c>
       <c r="V13" t="n">
-        <v>851.3102414349855</v>
+        <v>1036.802340948392</v>
       </c>
       <c r="W13" t="n">
-        <v>639.7761145123571</v>
+        <v>825.2682140257635</v>
       </c>
       <c r="X13" t="n">
-        <v>477.4920674415341</v>
+        <v>662.9841669549405</v>
       </c>
       <c r="Y13" t="n">
-        <v>326.1762814043713</v>
+        <v>569.5655503012281</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1135.015795124459</v>
+        <v>1710.135872896808</v>
       </c>
       <c r="C14" t="n">
-        <v>813.6365687735838</v>
+        <v>1710.135872896808</v>
       </c>
       <c r="D14" t="n">
-        <v>499.9917151364457</v>
+        <v>1396.49101925967</v>
       </c>
       <c r="E14" t="n">
-        <v>473.7581327892854</v>
+        <v>1065.703769522408</v>
       </c>
       <c r="F14" t="n">
-        <v>128.6599694654569</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654569</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404046</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358933</v>
       </c>
       <c r="M14" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040976</v>
       </c>
       <c r="O14" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2921.999930786568</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2651.68939663628</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543617</v>
+        <v>2352.486636750762</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.408699622868</v>
+        <v>2034.830306830012</v>
       </c>
       <c r="Y14" t="n">
-        <v>1463.714265689662</v>
+        <v>1710.135872896808</v>
       </c>
     </row>
     <row r="15">
@@ -5340,10 +5340,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E15" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F15" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G15" t="n">
         <v>199.803798091603</v>
@@ -5352,28 +5352,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
-        <v>1829.234834439669</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P15" t="n">
-        <v>2234.856203156066</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.0952099420617</v>
+        <v>244.3648084432237</v>
       </c>
       <c r="C16" t="n">
-        <v>556.6863671542449</v>
+        <v>145.9559656554068</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029534</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083499</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675167</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G16" t="n">
-        <v>207.099553813156</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.71283314325</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1365.71283314325</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1365.71283314325</v>
+        <v>988.1475398457737</v>
       </c>
       <c r="V16" t="n">
-        <v>1293.640913517784</v>
+        <v>793.9644698127919</v>
       </c>
       <c r="W16" t="n">
-        <v>1082.106786595155</v>
+        <v>582.4303428901635</v>
       </c>
       <c r="X16" t="n">
-        <v>919.8227395243321</v>
+        <v>509.0923380254938</v>
       </c>
       <c r="Y16" t="n">
-        <v>768.5069534871692</v>
+        <v>357.7765519883311</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5610,7 +5610,7 @@
         <v>2262.088962721623</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,16 +5677,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960402</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343043</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655135</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072216</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,13 +5735,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1345.668748541356</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1862.189031132337</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5914,19 +5914,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960407</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343048</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>683.142663665514</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072221</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -5990,16 +5990,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,13 +6008,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6139,7 +6139,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>247.9841471388008</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958359</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1286.389518343937</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1925.441780118091</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2453.253063755553</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377455</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>556.9309448458635</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1184.702594472545</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1840.480565683104</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>2357.000848274085</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
         <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>390.2195956327419</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>873.7856815310552</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.557331157736</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>2157.335302368295</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>2157.335302368295</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463666</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057088</v>
+        <v>601.3807258108108</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230607</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1257.18324446866</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.18414451324</v>
+        <v>1690.805456896586</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150703</v>
+        <v>2218.616740534048</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043031</v>
+        <v>2658.656341426377</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901623</v>
+        <v>3118.495954132882</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042572</v>
+        <v>3303.34151427383</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>182.662530460489</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>666.2286163588022</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1294.000265985484</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1949.778237196042</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>1949.778237196042</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2355.39960591244</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.671367692971</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404856</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245256</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652534</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597517</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834608</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431925</v>
+        <v>86.73045008374187</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803362</v>
+        <v>261.0422972872699</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812062</v>
+        <v>536.8220577360526</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465403</v>
+        <v>799.1395520791255</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>982.3291861103346</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872945</v>
+        <v>1145.033953152043</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1376.562239503604</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308586</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.2176684205</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250175</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395524</v>
+        <v>835.7257283273671</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000945</v>
+        <v>666.3144371400699</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124421</v>
+        <v>546.1532258045784</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.02107175845</v>
+        <v>436.960275502747</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6956,13 +6956,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>378.9738643893075</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>862.5399502876207</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1490.311599914302</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,46 +7099,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960409</v>
+        <v>313.6614512960415</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7151,49 +7151,49 @@
         <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
         <v>3105.956385205777</v>
@@ -7214,7 +7214,7 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443166</v>
@@ -7245,10 +7245,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
@@ -7266,10 +7266,10 @@
         <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407268</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462922</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>67.6987703122995</v>
       </c>
       <c r="K40" t="n">
-        <v>270.9691711012525</v>
+        <v>149.5338114222414</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750523</v>
+        <v>313.6614512960412</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133163</v>
+        <v>499.9530296343052</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445255</v>
+        <v>683.1426636655144</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>845.8474307072225</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924223</v>
@@ -7436,22 +7436,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7503,7 +7503,7 @@
         <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7579,10 +7579,10 @@
         <v>593.6560140511123</v>
       </c>
       <c r="N43" t="n">
-        <v>776.8456480823215</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O43" t="n">
-        <v>939.5504151240295</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P43" t="n">
         <v>1087.158956162812</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,16 +7679,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7731,16 +7731,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1122.744905612751</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1778.52287682331</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>2295.043159414291</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7816,16 +7816,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>360.1127184157003</v>
       </c>
       <c r="N2" t="n">
-        <v>599.440790612117</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837493</v>
+        <v>611.1777065035421</v>
       </c>
       <c r="N3" t="n">
-        <v>203.3343718525567</v>
+        <v>604.1626973083969</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>183.6305080413532</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,25 +8216,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>237.8657312597297</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>586.5663746337932</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920144</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,25 +8295,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837493</v>
+        <v>348.2985274535457</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886041</v>
+        <v>604.1626973083969</v>
       </c>
       <c r="O6" t="n">
-        <v>232.4345549924661</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,16 +8453,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>597.9750644161435</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8781,7 +8781,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9021,10 +9021,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>238.0573041899393</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9258,10 +9258,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>206.6446779083334</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,13 +9477,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
@@ -9492,13 +9492,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,10 +9714,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9729,10 +9729,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9951,10 +9951,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9966,13 +9966,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10191,7 +10191,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>295.3946671166306</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10206,10 +10206,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,7 +10428,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10440,13 +10440,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>212.248871977908</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>123.7997463922351</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10598,7 +10598,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698837</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
         <v>502.0059847475129</v>
@@ -10662,10 +10662,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>409.6522249143353</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10680,10 +10680,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10914,13 +10914,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P39" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.5494662449327</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11151,10 +11151,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P42" t="n">
-        <v>206.6446779083334</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11379,7 +11379,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11388,10 +11388,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>173.3576105420024</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>62.02069299075832</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>253.2975975973731</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993877</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442488</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338906</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456099</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901691</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>56.77231390597226</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>57.31819768961577</v>
       </c>
     </row>
     <row r="14">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>301.5081307162003</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.690542730795345</v>
       </c>
       <c r="G14" t="n">
-        <v>337.952815562145</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901691</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>120.8900389034403</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>88.05658178409148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>669307.898382482</v>
+        <v>669307.8983824821</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>669307.8983824818</v>
+        <v>669307.8983824821</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504930.0986613992</v>
+        <v>504930.0986613991</v>
       </c>
       <c r="C2" t="n">
-        <v>504930.0986613992</v>
+        <v>504930.0986613991</v>
       </c>
       <c r="D2" t="n">
-        <v>504930.0986613992</v>
+        <v>504930.0986613991</v>
       </c>
       <c r="E2" t="n">
-        <v>446205.2655883212</v>
+        <v>446205.2655883211</v>
       </c>
       <c r="F2" t="n">
         <v>446205.2655883211</v>
       </c>
       <c r="G2" t="n">
-        <v>504930.098661399</v>
+        <v>504930.0986613983</v>
       </c>
       <c r="H2" t="n">
-        <v>504930.0986613985</v>
+        <v>504930.0986613983</v>
       </c>
       <c r="I2" t="n">
-        <v>504930.0986613984</v>
+        <v>504930.0986613983</v>
       </c>
       <c r="J2" t="n">
-        <v>504930.0986613989</v>
+        <v>504930.0986613993</v>
       </c>
       <c r="K2" t="n">
-        <v>504930.0986613989</v>
+        <v>504930.0986613992</v>
       </c>
       <c r="L2" t="n">
-        <v>504930.0986613994</v>
+        <v>504930.0986613992</v>
       </c>
       <c r="M2" t="n">
-        <v>504930.0986613984</v>
+        <v>504930.098661398</v>
       </c>
       <c r="N2" t="n">
-        <v>504930.0986613983</v>
+        <v>504930.098661398</v>
       </c>
       <c r="O2" t="n">
         <v>504930.0986613983</v>
       </c>
       <c r="P2" t="n">
-        <v>504930.0986613985</v>
+        <v>504930.0986613989</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062183</v>
+        <v>22558.42953401358</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668201</v>
+        <v>47425.32553668192</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728552</v>
+        <v>62456.2417753968</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081115</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.69404277129</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005337</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373742</v>
+        <v>74084.49552373751</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373742</v>
+        <v>74084.49552373747</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="H4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="I4" t="n">
         <v>121843.4120153197</v>
@@ -26445,10 +26445,10 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="N4" t="n">
         <v>121843.4120153197</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,7 +26479,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.0196998405</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
@@ -26488,22 +26488,22 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88834.74600521909</v>
+        <v>91983.09659199328</v>
       </c>
       <c r="C6" t="n">
-        <v>271039.694297075</v>
+        <v>265841.7536260482</v>
       </c>
       <c r="D6" t="n">
-        <v>266176.4120031999</v>
+        <v>258440.1227798081</v>
       </c>
       <c r="E6" t="n">
-        <v>206812.1888906987</v>
+        <v>206602.457344009</v>
       </c>
       <c r="F6" t="n">
-        <v>318934.7503647431</v>
+        <v>318725.0188180535</v>
       </c>
       <c r="G6" t="n">
-        <v>277491.5917938777</v>
+        <v>277491.591793877</v>
       </c>
       <c r="H6" t="n">
-        <v>324916.9173305592</v>
+        <v>324916.9173305589</v>
       </c>
       <c r="I6" t="n">
         <v>324916.9173305591</v>
       </c>
       <c r="J6" t="n">
-        <v>111874.9997332741</v>
+        <v>118391.2848878477</v>
       </c>
       <c r="K6" t="n">
-        <v>318677.1489277766</v>
+        <v>318677.148927777</v>
       </c>
       <c r="L6" t="n">
-        <v>263494.559993156</v>
+        <v>259445.7227826835</v>
       </c>
       <c r="M6" t="n">
-        <v>282716.0878709361</v>
+        <v>281664.3928597476</v>
       </c>
       <c r="N6" t="n">
-        <v>324916.9173305589</v>
+        <v>324916.9173305587</v>
       </c>
       <c r="O6" t="n">
-        <v>297149.2232877878</v>
+        <v>297149.2232877877</v>
       </c>
       <c r="P6" t="n">
-        <v>324916.9173305592</v>
+        <v>324916.9173305596</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
+        <v>93.99127447431648</v>
+      </c>
+      <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K2" t="n">
-        <v>93.99127447431647</v>
-      </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,7 +26799,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="G4" t="n">
         <v>776.4890963014441</v>
@@ -26808,22 +26808,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085251</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.6268397466069</v>
+        <v>78.070302219246</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551349</v>
+        <v>17.58004954287429</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346411</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.3622249971642</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407265</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085251</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>194.538360332632</v>
+        <v>368.2801861127075</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9.494503284694616</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>50.0957164060937</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>111.6970161780003</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>108.8015838723061</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>198.362537592724</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>200.2289357985969</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27670,16 +27670,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27695,10 +27695,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>106.6157057928221</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>7.496283233373049</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27837,10 +27837,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>66.12369447580232</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>144.1400749395018</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>284.0751103320103</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>83.56937528407786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28026,10 +28026,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>169.3250563406716</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>56.04115481195228</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="17">
@@ -28749,19 +28749,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.636002634528353</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28986,22 +28986,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29062,7 +29062,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,19 +29229,19 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901124</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
         <v>30.27223765901232</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,40 +29746,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>86.2729119656658</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>81.1080814089313</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031201</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861254239</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30171,16 +30171,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>5.636002634529035</v>
+        <v>5.636002634529603</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30244,7 +30244,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30402,31 +30402,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>35.71049010668832</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>28.01250026485259</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30651,13 +30651,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>28.01250026485255</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>28.01250026485243</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
@@ -30888,19 +30888,19 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34702,13 +34702,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344374</v>
+        <v>210.387666817973</v>
       </c>
       <c r="N2" t="n">
-        <v>450.3222992743329</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N3" t="n">
-        <v>117.96225899839</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>90.94294915246429</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>94.80732808049237</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>436.8413230360659</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344374</v>
+        <v>255.9114054042337</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O6" t="n">
-        <v>139.7469961035772</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>444.7268946856518</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35501,7 +35501,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317787</v>
       </c>
       <c r="L14" t="n">
         <v>498.303324968211</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35741,10 +35741,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>147.0691510340253</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>119.5613130890187</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,19 +36045,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565483</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
@@ -36212,13 +36212,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,22 +36282,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>171.4214974565488</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317805</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
         <v>498.303324968211</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36449,10 +36449,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.3831193851016</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272222</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>533.1427107449111</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36686,13 +36686,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36841,19 +36841,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>381.9767751656</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>205.7977317832973</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
@@ -36926,10 +36926,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>448.8813523974454</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682818</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>632.6241420600228</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066585</v>
+        <v>464.4844572792978</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273758</v>
+        <v>75.16693519537678</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37160,13 +37160,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.81159323632111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.2619698279118</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.44157745952</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>278.56541459473</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>264.967166003104</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496212</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457873</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>320.0552895810019</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37400,10 +37400,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,16 +37467,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>171.421497456549</v>
+        <v>171.4214974565496</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
@@ -37634,13 +37634,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634529246</v>
       </c>
       <c r="K40" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P41" t="n">
         <v>351.7045375065877</v>
@@ -37871,10 +37871,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P42" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37947,13 +37947,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>213.0525346398113</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>149.0995364028106</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
@@ -38108,10 +38108,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>86.27424572268772</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,19 +38184,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>249.3850182462355</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
